--- a/SKUs/SKUs.xlsx
+++ b/SKUs/SKUs.xlsx
@@ -66,11 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +376,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,721 +390,721 @@
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>67527</v>
+        <v>23656</v>
       </c>
       <c r="B2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>IJLH</v>
+        <v>WLKR</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>PZ52</v>
+        <v>QS26</v>
       </c>
       <c r="D2" s="3" t="str">
         <f ca="1">B2&amp;A2&amp;C2</f>
-        <v>IJLH67527PZ52</v>
+        <v>WLKR23656QS26</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A41" ca="1" si="0">RANDBETWEEN(10000,99999)</f>
-        <v>50516</v>
+        <v>70516</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" ref="B3:B41" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>YPKP</v>
+        <v>OQBJ</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C41" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>UH63</v>
+        <v>IH31</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D41" ca="1" si="3">B3&amp;A3&amp;C3</f>
-        <v>YPKP50516UH63</v>
+        <v>OQBJ70516IH31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28077</v>
+        <v>61708</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DNJN</v>
+        <v>XYBZ</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DR47</v>
+        <v>DI33</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DNJN28077DR47</v>
+        <v>XYBZ61708DI33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11694</v>
+        <v>39872</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZXRA</v>
+        <v>DEHJ</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DT15</v>
+        <v>UX81</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ZXRA11694DT15</v>
+        <v>DEHJ39872UX81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15320</v>
+        <v>96859</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GDMJ</v>
+        <v>BLFQ</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RA26</v>
+        <v>ZO90</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GDMJ15320RA26</v>
+        <v>BLFQ96859ZO90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>95865</v>
+        <v>83559</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>AUTB</v>
+        <v>KSQB</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BP20</v>
+        <v>NB84</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AUTB95865BP20</v>
+        <v>KSQB83559NB84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>52508</v>
+        <v>23583</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XAFC</v>
+        <v>IUKL</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RS49</v>
+        <v>PA30</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>XAFC52508RS49</v>
+        <v>IUKL23583PA30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12798</v>
+        <v>96799</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RIXB</v>
+        <v>DLBE</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SA95</v>
+        <v>JN20</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RIXB12798SA95</v>
+        <v>DLBE96799JN20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>98468</v>
+        <v>76019</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ANVG</v>
+        <v>XCOW</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LB77</v>
+        <v>SQ85</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ANVG98468LB77</v>
+        <v>XCOW76019SQ85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20745</v>
+        <v>14587</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OWBS</v>
+        <v>LRQU</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BH36</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>OWBS20745BH36</v>
+        <v>AD24</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>LRQU14587AD24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59848</v>
+        <v>19792</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZGGS</v>
+        <v>EWEO</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FN32</v>
+        <v>TR46</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ZGGS59848FN32</v>
+        <v>EWEO19792TR46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>93536</v>
+        <v>93525</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QVZP</v>
+        <v>XVDW</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GI87</v>
+        <v>UP94</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QVZP93536GI87</v>
+        <v>XVDW93525UP94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>99864</v>
+        <v>54712</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WBUW</v>
+        <v>XQBB</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SQ83</v>
+        <v>SW12</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WBUW99864SQ83</v>
+        <v>XQBB54712SW12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91864</v>
+        <v>80479</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RRNI</v>
+        <v>FAKW</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RJ11</v>
+        <v>KV21</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RRNI91864RJ11</v>
+        <v>FAKW80479KV21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>89166</v>
+        <v>77763</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NUCJ</v>
+        <v>OSBW</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QQ21</v>
+        <v>FL67</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NUCJ89166QQ21</v>
+        <v>OSBW77763FL67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66748</v>
+        <v>73204</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CLNF</v>
+        <v>MKMW</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LR83</v>
+        <v>OR55</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CLNF66748LR83</v>
+        <v>MKMW73204OR55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28491</v>
+        <v>12105</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QDIJ</v>
+        <v>IAWV</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GI14</v>
+        <v>LW92</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QDIJ28491GI14</v>
+        <v>IAWV12105LW92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>90869</v>
+        <v>47417</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GMMD</v>
+        <v>ETUD</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DO19</v>
+        <v>RQ18</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GMMD90869DO19</v>
+        <v>ETUD47417RQ18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14282</v>
+        <v>73083</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZJEQ</v>
+        <v>GOIQ</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LE87</v>
+        <v>WI29</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ZJEQ14282LE87</v>
+        <v>GOIQ73083WI29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56060</v>
+        <v>50956</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VCXX</v>
+        <v>SMCO</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FK33</v>
+        <v>HL14</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VCXX56060FK33</v>
+        <v>SMCO50956HL14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36967</v>
+        <v>37794</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HPUU</v>
+        <v>WLUH</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RY74</v>
+        <v>XF57</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HPUU36967RY74</v>
+        <v>WLUH37794XF57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23342</v>
+        <v>39645</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SXWX</v>
+        <v>BTFW</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EG95</v>
+        <v>BO86</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SXWX23342EG95</v>
+        <v>BTFW39645BO86</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>79495</v>
+        <v>29526</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DIYB</v>
+        <v>SAAE</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YN86</v>
+        <v>YK83</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DIYB79495YN86</v>
+        <v>SAAE29526YK83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23389</v>
+        <v>83455</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RHFJ</v>
+        <v>AJDQ</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WU86</v>
+        <v>PS83</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RHFJ23389WU86</v>
+        <v>AJDQ83455PS83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>47966</v>
+        <v>57747</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ENEM</v>
+        <v>KRLG</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UV83</v>
+        <v>OX93</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ENEM47966UV83</v>
+        <v>KRLG57747OX93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45597</v>
+        <v>56702</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RYVB</v>
+        <v>CUDK</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JL81</v>
+        <v>YU10</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RYVB45597JL81</v>
+        <v>CUDK56702YU10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34847</v>
+        <v>35783</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WQWG</v>
+        <v>UROX</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HN76</v>
+        <v>HJ46</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WQWG34847HN76</v>
+        <v>UROX35783HJ46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39958</v>
+        <v>93844</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TMWS</v>
+        <v>NLYZ</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SU11</v>
+        <v>MG88</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>TMWS39958SU11</v>
+        <v>NLYZ93844MG88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51179</v>
+        <v>39832</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QHOH</v>
+        <v>CLCA</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YT59</v>
+        <v>NV62</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QHOH51179YT59</v>
+        <v>CLCA39832NV62</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>79934</v>
+        <v>44194</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KFBO</v>
+        <v>TSGB</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LT22</v>
+        <v>VR18</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KFBO79934LT22</v>
+        <v>TSGB44194VR18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>88149</v>
+        <v>22923</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IZTO</v>
+        <v>CIKY</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IQ41</v>
+        <v>HZ72</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>IZTO88149IQ41</v>
+        <v>CIKY22923HZ72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>54491</v>
+        <v>24502</v>
       </c>
       <c r="B33" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>QIRE</v>
+        <v>PHPA</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PJ39</v>
+        <v>CG15</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QIRE54491PJ39</v>
+        <v>PHPA24502CG15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>94575</v>
+        <v>42737</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NWXL</v>
+        <v>DMET</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MQ31</v>
+        <v>JJ60</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NWXL94575MQ31</v>
+        <v>DMET42737JJ60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11376</v>
+        <v>89161</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZLAJ</v>
+        <v>KLUZ</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NJ87</v>
+        <v>CE81</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ZLAJ11376NJ87</v>
+        <v>KLUZ89161CE81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91579</v>
+        <v>30155</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QATP</v>
+        <v>BNXM</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QQ47</v>
+        <v>BV37</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QATP91579QQ47</v>
+        <v>BNXM30155BV37</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66129</v>
+        <v>79447</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JLZS</v>
+        <v>OJYC</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GS71</v>
+        <v>YQ96</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JLZS66129GS71</v>
+        <v>OJYC79447YQ96</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29461</v>
+        <v>31568</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QANQ</v>
+        <v>TVOZ</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AV38</v>
+        <v>LA17</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QANQ29461AV38</v>
+        <v>TVOZ31568LA17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>31657</v>
+        <v>40812</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KXFM</v>
+        <v>JOXP</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FM84</v>
+        <v>XW57</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KXFM31657FM84</v>
+        <v>JOXP40812XW57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14351</v>
+        <v>70585</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BBGE</v>
+        <v>BGIU</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GP42</v>
+        <v>GK62</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BBGE14351GP42</v>
+        <v>BGIU70585GK62</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>54925</v>
+        <v>27354</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OTQD</v>
+        <v>ZMMB</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WY69</v>
+        <v>BQ90</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>OTQD54925WY69</v>
+        <v>ZMMB27354BQ90</v>
       </c>
     </row>
   </sheetData>

--- a/SKUs/SKUs.xlsx
+++ b/SKUs/SKUs.xlsx
@@ -66,12 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,7 +375,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,721 +389,721 @@
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>23656</v>
+        <v>57910</v>
       </c>
       <c r="B2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>WLKR</v>
+        <v>ICOP</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>QS26</v>
+        <v>BI47</v>
       </c>
       <c r="D2" s="3" t="str">
         <f ca="1">B2&amp;A2&amp;C2</f>
-        <v>WLKR23656QS26</v>
+        <v>ICOP57910BI47</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A41" ca="1" si="0">RANDBETWEEN(10000,99999)</f>
-        <v>70516</v>
+        <v>38841</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" ref="B3:B41" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>OQBJ</v>
+        <v>RQTH</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C41" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>IH31</v>
+        <v>QW94</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D41" ca="1" si="3">B3&amp;A3&amp;C3</f>
-        <v>OQBJ70516IH31</v>
+        <v>RQTH38841QW94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61708</v>
+        <v>90025</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XYBZ</v>
+        <v>ZUPF</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DI33</v>
+        <v>WG80</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>XYBZ61708DI33</v>
+        <v>ZUPF90025WG80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39872</v>
+        <v>61746</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEHJ</v>
+        <v>VKHH</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UX81</v>
+        <v>GK19</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DEHJ39872UX81</v>
+        <v>VKHH61746GK19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>96859</v>
+        <v>33278</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BLFQ</v>
+        <v>OSDU</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZO90</v>
+        <v>MG18</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BLFQ96859ZO90</v>
+        <v>OSDU33278MG18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>83559</v>
+        <v>15655</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KSQB</v>
+        <v>HAFD</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NB84</v>
+        <v>DW66</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KSQB83559NB84</v>
+        <v>HAFD15655DW66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23583</v>
+        <v>73132</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IUKL</v>
+        <v>BOBF</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PA30</v>
+        <v>KF48</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>IUKL23583PA30</v>
+        <v>BOBF73132KF48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>96799</v>
+        <v>96880</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DLBE</v>
+        <v>XBKV</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JN20</v>
+        <v>OZ99</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DLBE96799JN20</v>
+        <v>XBKV96880OZ99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>76019</v>
+        <v>95294</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XCOW</v>
+        <v>PJTR</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SQ85</v>
+        <v>UH30</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>XCOW76019SQ85</v>
+        <v>PJTR95294UH30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14587</v>
+        <v>11891</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LRQU</v>
+        <v>FIWC</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AD24</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>LRQU14587AD24</v>
+        <v>VN65</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>FIWC11891VN65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19792</v>
+        <v>80409</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EWEO</v>
+        <v>PJZC</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TR46</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>EWEO19792TR46</v>
+        <v>KF70</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>PJZC80409KF70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>93525</v>
+        <v>66807</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XVDW</v>
+        <v>VVTT</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UP94</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>XVDW93525UP94</v>
+        <v>BL30</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>VVTT66807BL30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>54712</v>
+        <v>18713</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XQBB</v>
+        <v>YCIC</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SW12</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>XQBB54712SW12</v>
+        <v>YH52</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>YCIC18713YH52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>80479</v>
+        <v>30093</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FAKW</v>
+        <v>NQND</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KV21</v>
+        <v>MI22</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FAKW80479KV21</v>
+        <v>NQND30093MI22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>77763</v>
+        <v>82699</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OSBW</v>
+        <v>FCOU</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FL67</v>
+        <v>HL56</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>OSBW77763FL67</v>
+        <v>FCOU82699HL56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73204</v>
+        <v>26727</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MKMW</v>
+        <v>XSGH</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OR55</v>
+        <v>WU40</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MKMW73204OR55</v>
+        <v>XSGH26727WU40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>12105</v>
+        <v>68600</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IAWV</v>
+        <v>XUCG</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LW92</v>
+        <v>AY90</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>IAWV12105LW92</v>
+        <v>XUCG68600AY90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>47417</v>
+        <v>35483</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ETUD</v>
+        <v>IHXO</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RQ18</v>
+        <v>TT71</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ETUD47417RQ18</v>
+        <v>IHXO35483TT71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73083</v>
+        <v>29188</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GOIQ</v>
+        <v>QMTW</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WI29</v>
+        <v>NF76</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GOIQ73083WI29</v>
+        <v>QMTW29188NF76</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50956</v>
+        <v>23142</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SMCO</v>
+        <v>JYGA</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HL14</v>
+        <v>IA64</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SMCO50956HL14</v>
+        <v>JYGA23142IA64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37794</v>
+        <v>24891</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WLUH</v>
+        <v>LEXO</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XF57</v>
+        <v>RD52</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WLUH37794XF57</v>
+        <v>LEXO24891RD52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39645</v>
+        <v>15130</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BTFW</v>
+        <v>NCOI</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BO86</v>
+        <v>GQ82</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BTFW39645BO86</v>
+        <v>NCOI15130GQ82</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29526</v>
+        <v>58222</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SAAE</v>
+        <v>REPH</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YK83</v>
+        <v>AO38</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SAAE29526YK83</v>
+        <v>REPH58222AO38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>83455</v>
+        <v>49304</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>AJDQ</v>
+        <v>MYDA</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PS83</v>
+        <v>XI17</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AJDQ83455PS83</v>
+        <v>MYDA49304XI17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57747</v>
+        <v>99942</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KRLG</v>
+        <v>GNHZ</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OX93</v>
+        <v>BA93</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KRLG57747OX93</v>
+        <v>GNHZ99942BA93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56702</v>
+        <v>72361</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CUDK</v>
+        <v>YFSA</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YU10</v>
+        <v>WR19</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CUDK56702YU10</v>
+        <v>YFSA72361WR19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35783</v>
+        <v>41661</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UROX</v>
+        <v>FBST</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HJ46</v>
+        <v>ZF75</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UROX35783HJ46</v>
+        <v>FBST41661ZF75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>93844</v>
+        <v>44591</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NLYZ</v>
+        <v>IZCI</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MG88</v>
+        <v>SV17</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NLYZ93844MG88</v>
+        <v>IZCI44591SV17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39832</v>
+        <v>92439</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CLCA</v>
+        <v>EYPX</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NV62</v>
+        <v>ZC54</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CLCA39832NV62</v>
+        <v>EYPX92439ZC54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44194</v>
+        <v>43362</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TSGB</v>
+        <v>NXWM</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VR18</v>
+        <v>OW99</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>TSGB44194VR18</v>
+        <v>NXWM43362OW99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>22923</v>
+        <v>98985</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CIKY</v>
+        <v>UHDZ</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HZ72</v>
+        <v>OX40</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CIKY22923HZ72</v>
+        <v>UHDZ98985OX40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24502</v>
+        <v>11235</v>
       </c>
       <c r="B33" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>PHPA</v>
+        <v>WFEW</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CG15</v>
+        <v>BT37</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>PHPA24502CG15</v>
+        <v>WFEW11235BT37</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42737</v>
+        <v>31405</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DMET</v>
+        <v>AMIP</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JJ60</v>
+        <v>PD84</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DMET42737JJ60</v>
+        <v>AMIP31405PD84</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>89161</v>
+        <v>73935</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KLUZ</v>
+        <v>WFZO</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CE81</v>
+        <v>GO44</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KLUZ89161CE81</v>
+        <v>WFZO73935GO44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30155</v>
+        <v>73663</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BNXM</v>
+        <v>NKET</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BV37</v>
+        <v>GW46</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BNXM30155BV37</v>
+        <v>NKET73663GW46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>79447</v>
+        <v>96107</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OJYC</v>
+        <v>OQWQ</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YQ96</v>
+        <v>MT81</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>OJYC79447YQ96</v>
+        <v>OQWQ96107MT81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31568</v>
+        <v>26229</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TVOZ</v>
+        <v>VTIS</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LA17</v>
+        <v>WO55</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>TVOZ31568LA17</v>
+        <v>VTIS26229WO55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>40812</v>
+        <v>37677</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JOXP</v>
+        <v>KRJR</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XW57</v>
+        <v>UQ88</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JOXP40812XW57</v>
+        <v>KRJR37677UQ88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70585</v>
+        <v>28018</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BGIU</v>
+        <v>XDFJ</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GK62</v>
+        <v>QR86</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BGIU70585GK62</v>
+        <v>XDFJ28018QR86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27354</v>
+        <v>15363</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZMMB</v>
+        <v>UMEB</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BQ90</v>
+        <v>BT63</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ZMMB27354BQ90</v>
+        <v>UMEB15363BT63</v>
       </c>
     </row>
   </sheetData>

--- a/SKUs/SKUs.xlsx
+++ b/SKUs/SKUs.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,721 +389,721 @@
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>57910</v>
+        <v>25483</v>
       </c>
       <c r="B2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>ICOP</v>
+        <v>HWQP</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>BI47</v>
+        <v>KO62</v>
       </c>
       <c r="D2" s="3" t="str">
         <f ca="1">B2&amp;A2&amp;C2</f>
-        <v>ICOP57910BI47</v>
+        <v>HWQP25483KO62</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A41" ca="1" si="0">RANDBETWEEN(10000,99999)</f>
-        <v>38841</v>
+        <v>98722</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" ref="B3:B41" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>RQTH</v>
+        <v>AIZQ</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C41" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>QW94</v>
+        <v>ZG61</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D41" ca="1" si="3">B3&amp;A3&amp;C3</f>
-        <v>RQTH38841QW94</v>
+        <v>AIZQ98722ZG61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>90025</v>
+        <v>27681</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZUPF</v>
+        <v>OSOO</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WG80</v>
+        <v>RC98</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ZUPF90025WG80</v>
+        <v>OSOO27681RC98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61746</v>
+        <v>95770</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VKHH</v>
+        <v>CAWP</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GK19</v>
+        <v>HS19</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VKHH61746GK19</v>
+        <v>CAWP95770HS19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33278</v>
+        <v>70176</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OSDU</v>
+        <v>ATXC</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MG18</v>
+        <v>JR59</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>OSDU33278MG18</v>
+        <v>ATXC70176JR59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15655</v>
+        <v>72801</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HAFD</v>
+        <v>GGXW</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>DW66</v>
+        <v>PC16</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HAFD15655DW66</v>
+        <v>GGXW72801PC16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73132</v>
+        <v>52123</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BOBF</v>
+        <v>YYPS</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KF48</v>
+        <v>FZ99</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BOBF73132KF48</v>
+        <v>YYPS52123FZ99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>96880</v>
+        <v>34563</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XBKV</v>
+        <v>HAZL</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OZ99</v>
+        <v>TL70</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>XBKV96880OZ99</v>
+        <v>HAZL34563TL70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>95294</v>
+        <v>35208</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PJTR</v>
+        <v>LNHG</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UH30</v>
+        <v>YJ23</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>PJTR95294UH30</v>
+        <v>LNHG35208YJ23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11891</v>
+        <v>41802</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FIWC</v>
+        <v>JTSU</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VN65</v>
+        <v>RS26</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FIWC11891VN65</v>
+        <v>JTSU41802RS26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>80409</v>
+        <v>84822</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PJZC</v>
+        <v>VNEA</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KF70</v>
+        <v>FV18</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>PJZC80409KF70</v>
+        <v>VNEA84822FV18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66807</v>
+        <v>84295</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VVTT</v>
+        <v>ZOTK</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BL30</v>
+        <v>XJ44</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VVTT66807BL30</v>
+        <v>ZOTK84295XJ44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18713</v>
+        <v>35927</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YCIC</v>
+        <v>AUKS</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YH52</v>
+        <v>LB50</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>YCIC18713YH52</v>
+        <v>AUKS35927LB50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>30093</v>
+        <v>62449</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NQND</v>
+        <v>COGW</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MI22</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NQND30093MI22</v>
+        <v>ZT18</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>COGW62449ZT18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82699</v>
+        <v>51202</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FCOU</v>
+        <v>MHNG</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HL56</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>FCOU82699HL56</v>
+        <v>GG50</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>MHNG51202GG50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26727</v>
+        <v>62485</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XSGH</v>
+        <v>PWCS</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WU40</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>XSGH26727WU40</v>
+        <v>MV76</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>PWCS62485MV76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68600</v>
+        <v>35340</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XUCG</v>
+        <v>CZLI</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AY90</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>XUCG68600AY90</v>
+        <v>TL24</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>CZLI35340TL24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35483</v>
+        <v>52222</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IHXO</v>
+        <v>PEEM</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TT71</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>IHXO35483TT71</v>
+        <v>NF90</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>PEEM52222NF90</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29188</v>
+        <v>48614</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QMTW</v>
+        <v>ENPC</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NF76</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>QMTW29188NF76</v>
+        <v>PH22</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>ENPC48614PH22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23142</v>
+        <v>72795</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JYGA</v>
+        <v>DCLI</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IA64</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>JYGA23142IA64</v>
+        <v>UA28</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>DCLI72795UA28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24891</v>
+        <v>86454</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LEXO</v>
+        <v>NCKE</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RD52</v>
+        <v>KP71</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>LEXO24891RD52</v>
+        <v>NCKE86454KP71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15130</v>
+        <v>52426</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NCOI</v>
+        <v>LWDK</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GQ82</v>
+        <v>RQ84</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NCOI15130GQ82</v>
+        <v>LWDK52426RQ84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58222</v>
+        <v>59990</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>REPH</v>
+        <v>MXBT</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AO38</v>
+        <v>BU50</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>REPH58222AO38</v>
+        <v>MXBT59990BU50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>49304</v>
+        <v>22528</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MYDA</v>
+        <v>FQRQ</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XI17</v>
+        <v>UO67</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MYDA49304XI17</v>
+        <v>FQRQ22528UO67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>99942</v>
+        <v>27220</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GNHZ</v>
+        <v>RNIV</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BA93</v>
+        <v>IE97</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GNHZ99942BA93</v>
+        <v>RNIV27220IE97</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72361</v>
+        <v>32689</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YFSA</v>
+        <v>DOIN</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WR19</v>
+        <v>XG99</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>YFSA72361WR19</v>
+        <v>DOIN32689XG99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41661</v>
+        <v>91609</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FBST</v>
+        <v>VZVS</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZF75</v>
+        <v>IE19</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FBST41661ZF75</v>
+        <v>VZVS91609IE19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44591</v>
+        <v>10719</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IZCI</v>
+        <v>WAWG</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SV17</v>
+        <v>LN60</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>IZCI44591SV17</v>
+        <v>WAWG10719LN60</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>92439</v>
+        <v>44541</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EYPX</v>
+        <v>EWUT</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZC54</v>
+        <v>AA20</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EYPX92439ZC54</v>
+        <v>EWUT44541AA20</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43362</v>
+        <v>68877</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NXWM</v>
+        <v>VYHV</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OW99</v>
+        <v>RK91</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NXWM43362OW99</v>
+        <v>VYHV68877RK91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>98985</v>
+        <v>87365</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UHDZ</v>
+        <v>TAEZ</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OX40</v>
+        <v>HJ33</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UHDZ98985OX40</v>
+        <v>TAEZ87365HJ33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11235</v>
+        <v>18231</v>
       </c>
       <c r="B33" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>WFEW</v>
+        <v>OTAC</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BT37</v>
+        <v>EM42</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WFEW11235BT37</v>
+        <v>OTAC18231EM42</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>31405</v>
+        <v>85662</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>AMIP</v>
+        <v>RJPB</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PD84</v>
+        <v>EK13</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AMIP31405PD84</v>
+        <v>RJPB85662EK13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73935</v>
+        <v>65743</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WFZO</v>
+        <v>JRDG</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GO44</v>
+        <v>LC66</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WFZO73935GO44</v>
+        <v>JRDG65743LC66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>73663</v>
+        <v>15095</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NKET</v>
+        <v>DUUH</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GW46</v>
+        <v>RZ42</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>NKET73663GW46</v>
+        <v>DUUH15095RZ42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>96107</v>
+        <v>18571</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OQWQ</v>
+        <v>BKDE</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MT81</v>
+        <v>US78</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>OQWQ96107MT81</v>
+        <v>BKDE18571US78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>26229</v>
+        <v>48189</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VTIS</v>
+        <v>BGXV</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WO55</v>
+        <v>ZD36</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VTIS26229WO55</v>
+        <v>BGXV48189ZD36</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>37677</v>
+        <v>60268</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KRJR</v>
+        <v>ABCF</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UQ88</v>
+        <v>ZR74</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KRJR37677UQ88</v>
+        <v>ABCF60268ZR74</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>28018</v>
+        <v>18960</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XDFJ</v>
+        <v>UKEB</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QR86</v>
+        <v>VH21</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>XDFJ28018QR86</v>
+        <v>UKEB18960VH21</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15363</v>
+        <v>14004</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UMEB</v>
+        <v>BFIU</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BT63</v>
+        <v>UF30</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UMEB15363BT63</v>
+        <v>BFIU14004UF30</v>
       </c>
     </row>
   </sheetData>

--- a/SKUs/SKUs.xlsx
+++ b/SKUs/SKUs.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,721 +389,721 @@
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>25483</v>
+        <v>85337</v>
       </c>
       <c r="B2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>HWQP</v>
+        <v>PUDY</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>KO62</v>
+        <v>VB54</v>
       </c>
       <c r="D2" s="3" t="str">
         <f ca="1">B2&amp;A2&amp;C2</f>
-        <v>HWQP25483KO62</v>
+        <v>PUDY85337VB54</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A41" ca="1" si="0">RANDBETWEEN(10000,99999)</f>
-        <v>98722</v>
+        <v>51841</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" ref="B3:B41" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>AIZQ</v>
+        <v>XUEX</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C41" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>ZG61</v>
+        <v>LR73</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D41" ca="1" si="3">B3&amp;A3&amp;C3</f>
-        <v>AIZQ98722ZG61</v>
+        <v>XUEX51841LR73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27681</v>
+        <v>47940</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>OSOO</v>
+        <v>GICD</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RC98</v>
+        <v>BF66</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>OSOO27681RC98</v>
+        <v>GICD47940BF66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>95770</v>
+        <v>63208</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CAWP</v>
+        <v>LDWX</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HS19</v>
+        <v>TM69</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CAWP95770HS19</v>
+        <v>LDWX63208TM69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70176</v>
+        <v>46756</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ATXC</v>
+        <v>FVEY</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JR59</v>
+        <v>OQ34</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ATXC70176JR59</v>
+        <v>FVEY46756OQ34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72801</v>
+        <v>13060</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GGXW</v>
+        <v>XKKO</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PC16</v>
+        <v>BV35</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GGXW72801PC16</v>
+        <v>XKKO13060BV35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>52123</v>
+        <v>27196</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YYPS</v>
+        <v>GWPU</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FZ99</v>
+        <v>QD33</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>YYPS52123FZ99</v>
+        <v>GWPU27196QD33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>34563</v>
+        <v>61210</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HAZL</v>
+        <v>CPAO</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TL70</v>
+        <v>WT33</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>HAZL34563TL70</v>
+        <v>CPAO61210WT33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35208</v>
+        <v>14320</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LNHG</v>
+        <v>EJRB</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YJ23</v>
+        <v>GE97</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>LNHG35208YJ23</v>
+        <v>EJRB14320GE97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41802</v>
+        <v>22025</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JTSU</v>
+        <v>SZEQ</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RS26</v>
+        <v>QO49</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JTSU41802RS26</v>
+        <v>SZEQ22025QO49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>84822</v>
+        <v>50349</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VNEA</v>
+        <v>JQHG</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FV18</v>
+        <v>LJ94</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VNEA84822FV18</v>
+        <v>JQHG50349LJ94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>84295</v>
+        <v>44427</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZOTK</v>
+        <v>KWBO</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XJ44</v>
+        <v>MJ75</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ZOTK84295XJ44</v>
+        <v>KWBO44427MJ75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35927</v>
+        <v>58061</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>AUKS</v>
+        <v>YGNM</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LB50</v>
+        <v>ID34</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AUKS35927LB50</v>
+        <v>YGNM58061ID34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62449</v>
+        <v>29754</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>COGW</v>
+        <v>CCAW</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZT18</v>
+        <v>JW30</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>COGW62449ZT18</v>
+        <v>CCAW29754JW30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51202</v>
+        <v>90946</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MHNG</v>
+        <v>AQDM</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GG50</v>
+        <v>IL67</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MHNG51202GG50</v>
+        <v>AQDM90946IL67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62485</v>
+        <v>88994</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PWCS</v>
+        <v>BUGP</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MV76</v>
+        <v>HE52</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>PWCS62485MV76</v>
+        <v>BUGP88994HE52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35340</v>
+        <v>97468</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CZLI</v>
+        <v>GZOO</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TL24</v>
+        <v>LD53</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CZLI35340TL24</v>
+        <v>GZOO97468LD53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>52222</v>
+        <v>71899</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PEEM</v>
+        <v>YLHQ</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>NF90</v>
+        <v>HQ11</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>PEEM52222NF90</v>
+        <v>YLHQ71899HQ11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>48614</v>
+        <v>36917</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ENPC</v>
+        <v>KHUS</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PH22</v>
+        <v>SA52</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ENPC48614PH22</v>
+        <v>KHUS36917SA52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72795</v>
+        <v>20681</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DCLI</v>
+        <v>RDQE</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UA28</v>
+        <v>VW31</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DCLI72795UA28</v>
+        <v>RDQE20681VW31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>86454</v>
+        <v>60637</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NCKE</v>
+        <v>EBDC</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>KP71</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>NCKE86454KP71</v>
+        <v>CG55</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EBDC60637CG55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>52426</v>
+        <v>54328</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LWDK</v>
+        <v>JNEN</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RQ84</v>
+        <v>TV38</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>LWDK52426RQ84</v>
+        <v>JNEN54328TV38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59990</v>
+        <v>18785</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MXBT</v>
+        <v>ELVE</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BU50</v>
+        <v>RS13</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MXBT59990BU50</v>
+        <v>ELVE18785RS13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22528</v>
+        <v>63639</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FQRQ</v>
+        <v>DLOP</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UO67</v>
+        <v>IR11</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FQRQ22528UO67</v>
+        <v>DLOP63639IR11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27220</v>
+        <v>36090</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RNIV</v>
+        <v>GXND</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IE97</v>
+        <v>YR57</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RNIV27220IE97</v>
+        <v>GXND36090YR57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32689</v>
+        <v>76724</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DOIN</v>
+        <v>ZZQM</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>XG99</v>
+        <v>AU99</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DOIN32689XG99</v>
+        <v>ZZQM76724AU99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>91609</v>
+        <v>70782</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VZVS</v>
+        <v>WAHK</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IE19</v>
+        <v>MV43</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VZVS91609IE19</v>
+        <v>WAHK70782MV43</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10719</v>
+        <v>54057</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAWG</v>
+        <v>EYUX</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LN60</v>
+        <v>SZ46</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WAWG10719LN60</v>
+        <v>EYUX54057SZ46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44541</v>
+        <v>45948</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EWUT</v>
+        <v>QNRO</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AA20</v>
+        <v>VE87</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EWUT44541AA20</v>
+        <v>QNRO45948VE87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68877</v>
+        <v>88838</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VYHV</v>
+        <v>MOKM</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RK91</v>
+        <v>GF47</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>VYHV68877RK91</v>
+        <v>MOKM88838GF47</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>87365</v>
+        <v>70754</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TAEZ</v>
+        <v>PFNX</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HJ33</v>
+        <v>FB49</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>TAEZ87365HJ33</v>
+        <v>PFNX70754FB49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18231</v>
+        <v>99480</v>
       </c>
       <c r="B33" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>OTAC</v>
+        <v>WLZC</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EM42</v>
+        <v>CH96</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>OTAC18231EM42</v>
+        <v>WLZC99480CH96</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>85662</v>
+        <v>45649</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RJPB</v>
+        <v>UUMH</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>EK13</v>
+        <v>LL17</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RJPB85662EK13</v>
+        <v>UUMH45649LL17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65743</v>
+        <v>19046</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JRDG</v>
+        <v>ESQF</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LC66</v>
+        <v>UT46</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JRDG65743LC66</v>
+        <v>ESQF19046UT46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15095</v>
+        <v>51804</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DUUH</v>
+        <v>FVHF</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RZ42</v>
+        <v>LY12</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DUUH15095RZ42</v>
+        <v>FVHF51804LY12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18571</v>
+        <v>50531</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BKDE</v>
+        <v>CCVK</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>US78</v>
+        <v>VA34</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BKDE18571US78</v>
+        <v>CCVK50531VA34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>48189</v>
+        <v>58227</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BGXV</v>
+        <v>WSCI</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZD36</v>
+        <v>VK68</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BGXV48189ZD36</v>
+        <v>WSCI58227VK68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>60268</v>
+        <v>62708</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABCF</v>
+        <v>SLPC</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ZR74</v>
+        <v>PI75</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ABCF60268ZR74</v>
+        <v>SLPC62708PI75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18960</v>
+        <v>59055</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UKEB</v>
+        <v>KIDU</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VH21</v>
+        <v>QH46</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UKEB18960VH21</v>
+        <v>KIDU59055QH46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14004</v>
+        <v>60939</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BFIU</v>
+        <v>UTXV</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UF30</v>
+        <v>RB75</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BFIU14004UF30</v>
+        <v>UTXV60939RB75</v>
       </c>
     </row>
   </sheetData>

--- a/SKUs/SKUs.xlsx
+++ b/SKUs/SKUs.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,721 +389,721 @@
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>85337</v>
+        <v>25878</v>
       </c>
       <c r="B2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>PUDY</v>
+        <v>CQOM</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>VB54</v>
+        <v>OW69</v>
       </c>
       <c r="D2" s="3" t="str">
         <f ca="1">B2&amp;A2&amp;C2</f>
-        <v>PUDY85337VB54</v>
+        <v>CQOM25878OW69</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A41" ca="1" si="0">RANDBETWEEN(10000,99999)</f>
-        <v>51841</v>
+        <v>14920</v>
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" ref="B3:B41" ca="1" si="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>XUEX</v>
+        <v>EFEH</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C41" ca="1" si="2">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(10,99)</f>
-        <v>LR73</v>
+        <v>VM60</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D41" ca="1" si="3">B3&amp;A3&amp;C3</f>
-        <v>XUEX51841LR73</v>
+        <v>EFEH14920VM60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>47940</v>
+        <v>81370</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GICD</v>
+        <v>KSHP</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BF66</v>
+        <v>SC20</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GICD47940BF66</v>
+        <v>KSHP81370SC20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63208</v>
+        <v>10407</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>LDWX</v>
+        <v>CXUV</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TM69</v>
+        <v>QV14</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>LDWX63208TM69</v>
+        <v>CXUV10407QV14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>46756</v>
+        <v>14544</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FVEY</v>
+        <v>HEJO</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>OQ34</v>
+        <v>QV96</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FVEY46756OQ34</v>
+        <v>HEJO14544QV96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>13060</v>
+        <v>64748</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>XKKO</v>
+        <v>ZZLM</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>BV35</v>
+        <v>QW89</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>XKKO13060BV35</v>
+        <v>ZZLM64748QW89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27196</v>
+        <v>83699</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GWPU</v>
+        <v>XBTF</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QD33</v>
+        <v>VL47</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GWPU27196QD33</v>
+        <v>XBTF83699VL47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>61210</v>
+        <v>63796</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CPAO</v>
+        <v>SMHS</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>WT33</v>
+        <v>HT42</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CPAO61210WT33</v>
+        <v>SMHS63796HT42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14320</v>
+        <v>15756</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EJRB</v>
+        <v>OQLH</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GE97</v>
+        <v>WG73</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EJRB14320GE97</v>
+        <v>OQLH15756WG73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22025</v>
+        <v>26981</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SZEQ</v>
+        <v>BCPL</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QO49</v>
+        <v>PD79</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SZEQ22025QO49</v>
+        <v>BCPL26981PD79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50349</v>
+        <v>90615</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JQHG</v>
+        <v>LUVY</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LJ94</v>
+        <v>JT86</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JQHG50349LJ94</v>
+        <v>LUVY90615JT86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44427</v>
+        <v>38509</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KWBO</v>
+        <v>MFXF</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MJ75</v>
+        <v>CH63</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KWBO44427MJ75</v>
+        <v>MFXF38509CH63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58061</v>
+        <v>66355</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YGNM</v>
+        <v>XRZL</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ID34</v>
+        <v>XA95</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>YGNM58061ID34</v>
+        <v>XRZL66355XA95</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29754</v>
+        <v>86144</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CCAW</v>
+        <v>KBEP</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>JW30</v>
+        <v>QO86</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CCAW29754JW30</v>
+        <v>KBEP86144QO86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>90946</v>
+        <v>79592</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>AQDM</v>
+        <v>QMGI</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IL67</v>
+        <v>WD12</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AQDM90946IL67</v>
+        <v>QMGI79592WD12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>88994</v>
+        <v>29190</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>BUGP</v>
+        <v>FUBD</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HE52</v>
+        <v>KC65</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>BUGP88994HE52</v>
+        <v>FUBD29190KC65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>97468</v>
+        <v>31938</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GZOO</v>
+        <v>WXDX</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LD53</v>
+        <v>TE52</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GZOO97468LD53</v>
+        <v>WXDX31938TE52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71899</v>
+        <v>37804</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YLHQ</v>
+        <v>DFJD</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>HQ11</v>
+        <v>PP62</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>YLHQ71899HQ11</v>
+        <v>DFJD37804PP62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36917</v>
+        <v>22661</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KHUS</v>
+        <v>QCZV</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SA52</v>
+        <v>HH82</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KHUS36917SA52</v>
+        <v>QCZV22661HH82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>20681</v>
+        <v>27478</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RDQE</v>
+        <v>FVZG</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VW31</v>
+        <v>QS48</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>RDQE20681VW31</v>
+        <v>FVZG27478QS48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60637</v>
+        <v>16227</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EBDC</v>
+        <v>GYXO</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CG55</v>
+        <v>QV90</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EBDC60637CG55</v>
+        <v>GYXO16227QV90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>54328</v>
+        <v>96449</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JNEN</v>
+        <v>XZBP</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TV38</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>JNEN54328TV38</v>
+        <v>WX10</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>XZBP96449WX10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>18785</v>
+        <v>65780</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ELVE</v>
+        <v>MILE</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RS13</v>
+        <v>FN40</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ELVE18785RS13</v>
+        <v>MILE65780FN40</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63639</v>
+        <v>63085</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DLOP</v>
+        <v>YAVQ</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>IR11</v>
+        <v>MU31</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>DLOP63639IR11</v>
+        <v>YAVQ63085MU31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36090</v>
+        <v>68619</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GXND</v>
+        <v>TEZC</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>YR57</v>
+        <v>OB35</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>GXND36090YR57</v>
+        <v>TEZC68619OB35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>76724</v>
+        <v>52338</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ZZQM</v>
+        <v>JQCY</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AU99</v>
+        <v>ZB30</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ZZQM76724AU99</v>
+        <v>JQCY52338ZB30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70782</v>
+        <v>15198</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WAHK</v>
+        <v>UPMN</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>MV43</v>
+        <v>MK95</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WAHK70782MV43</v>
+        <v>UPMN15198MK95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>54057</v>
+        <v>30688</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>EYUX</v>
+        <v>JUXT</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>SZ46</v>
+        <v>LF88</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>EYUX54057SZ46</v>
+        <v>JUXT30688LF88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45948</v>
+        <v>34807</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>QNRO</v>
+        <v>JHYX</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VE87</v>
+        <v>GI51</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>QNRO45948VE87</v>
+        <v>JHYX34807GI51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>88838</v>
+        <v>18739</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MOKM</v>
+        <v>UEBU</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>GF47</v>
+        <v>LZ93</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>MOKM88838GF47</v>
+        <v>UEBU18739LZ93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>70754</v>
+        <v>50245</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PFNX</v>
+        <v>EYHZ</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>FB49</v>
+        <v>QV43</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>PFNX70754FB49</v>
+        <v>EYHZ50245QV43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>99480</v>
+        <v>89239</v>
       </c>
       <c r="B33" s="1" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90)) &amp; CHAR(RANDBETWEEN(65,90))</f>
-        <v>WLZC</v>
+        <v>DNPE</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>CH96</v>
+        <v>HP41</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WLZC99480CH96</v>
+        <v>DNPE89239HP41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45649</v>
+        <v>97917</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UUMH</v>
+        <v>GPLD</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LL17</v>
+        <v>RY76</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UUMH45649LL17</v>
+        <v>GPLD97917RY76</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19046</v>
+        <v>68702</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ESQF</v>
+        <v>TCEH</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>UT46</v>
+        <v>FJ58</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>ESQF19046UT46</v>
+        <v>TCEH68702FJ58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51804</v>
+        <v>34188</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>FVHF</v>
+        <v>JAFF</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>LY12</v>
+        <v>RI64</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>FVHF51804LY12</v>
+        <v>JAFF34188RI64</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50531</v>
+        <v>42934</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>CCVK</v>
+        <v>VMCC</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VA34</v>
+        <v>ZA95</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>CCVK50531VA34</v>
+        <v>VMCC42934ZA95</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58227</v>
+        <v>29309</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>WSCI</v>
+        <v>FUPF</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>VK68</v>
+        <v>QW92</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>WSCI58227VK68</v>
+        <v>FUPF29309QW92</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f ca="1">RANDBETWEEN(10000,99999)</f>
-        <v>62708</v>
+        <v>24249</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>SLPC</v>
+        <v>YLYA</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>PI75</v>
+        <v>BW49</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>SLPC62708PI75</v>
+        <v>YLYA24249BW49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>59055</v>
+        <v>25301</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>KIDU</v>
+        <v>LAZJ</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>QH46</v>
+        <v>NF38</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>KIDU59055QH46</v>
+        <v>LAZJ25301NF38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60939</v>
+        <v>41077</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>UTXV</v>
+        <v>WJLB</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>RB75</v>
+        <v>NB58</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>UTXV60939RB75</v>
+        <v>WJLB41077NB58</v>
       </c>
     </row>
   </sheetData>
